--- a/output8.xlsx
+++ b/output8.xlsx
@@ -78,7 +78,7 @@
     <font>
       <name val="Arial"/>
       <sz val="12.0"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -91,12 +91,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="18"/>
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="18"/>
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
